--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yayie\EclipseProjects\SeleniumClassJan2020\SimpliLearnSeleniumMavenProject\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yayie\SimpliLearn\selenium-java-maven\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D3D7C4-89B7-4960-B914-89C37490CF3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97609592-FF57-4827-9906-8AC2833F5C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="2745" windowWidth="17295" windowHeight="9810" xr2:uid="{0B9F7A9C-42BA-4027-BF54-12895B2CCB0A}"/>
+    <workbookView xWindow="1395" yWindow="315" windowWidth="15720" windowHeight="12600" firstSheet="5" activeTab="8" xr2:uid="{0B9F7A9C-42BA-4027-BF54-12895B2CCB0A}"/>
   </bookViews>
   <sheets>
     <sheet name="newaccountvalid" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -219,10 +213,10 @@
     <t>Mr</t>
   </si>
   <si>
-    <t>emailemail111@email.com</t>
-  </si>
-  <si>
-    <t>emailemail112@email.com</t>
+    <t>emailemail200@email.com</t>
+  </si>
+  <si>
+    <t>emailemail201@email.com</t>
   </si>
 </sst>
 </file>
@@ -595,13 +589,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C01FD4A-4BDF-45C1-BD83-9015C57BFC74}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
@@ -1272,7 +1266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AF77D0-3984-4FC4-9D03-B9A3FE916D3C}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yayie\SimpliLearn\selenium-java-maven\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97609592-FF57-4827-9906-8AC2833F5C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453AFA06-BA63-42F4-961E-0D2887B9FFB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="315" windowWidth="15720" windowHeight="12600" firstSheet="5" activeTab="8" xr2:uid="{0B9F7A9C-42BA-4027-BF54-12895B2CCB0A}"/>
+    <workbookView xWindow="1395" yWindow="315" windowWidth="15720" windowHeight="12600" xr2:uid="{0B9F7A9C-42BA-4027-BF54-12895B2CCB0A}"/>
   </bookViews>
   <sheets>
     <sheet name="newaccountvalid" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="shareproduct" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -213,10 +214,10 @@
     <t>Mr</t>
   </si>
   <si>
-    <t>emailemail200@email.com</t>
-  </si>
-  <si>
-    <t>emailemail201@email.com</t>
+    <t>emailemail205@email.com</t>
+  </si>
+  <si>
+    <t>emailemail206@email.com</t>
   </si>
 </sst>
 </file>
@@ -589,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C01FD4A-4BDF-45C1-BD83-9015C57BFC74}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,7 +1267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AF77D0-3984-4FC4-9D03-B9A3FE916D3C}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yayie\SimpliLearn\selenium-java-maven\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453AFA06-BA63-42F4-961E-0D2887B9FFB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B16191-C5F4-40F8-A24F-C5DAC1CB1C10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="315" windowWidth="15720" windowHeight="12600" xr2:uid="{0B9F7A9C-42BA-4027-BF54-12895B2CCB0A}"/>
+    <workbookView xWindow="1185" yWindow="285" windowWidth="15720" windowHeight="12600" xr2:uid="{0B9F7A9C-42BA-4027-BF54-12895B2CCB0A}"/>
   </bookViews>
   <sheets>
     <sheet name="newaccountvalid" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="60">
   <si>
     <t>Mrs</t>
   </si>
@@ -214,10 +214,7 @@
     <t>Mr</t>
   </si>
   <si>
-    <t>emailemail205@email.com</t>
-  </si>
-  <si>
-    <t>emailemail206@email.com</t>
+    <t>emailemail@email.com</t>
   </si>
 </sst>
 </file>
@@ -682,7 +679,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
